--- a/data/input/CD4_Treg_geneLists.xlsx
+++ b/data/input/CD4_Treg_geneLists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tedwards/Documents/projects/P589-1_Cerosaletti_Chen_foreign_autoreactive_CD4_Tcell_10X/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C721CB1-1A6E-E044-9519-1D5725BDBC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D433B7D-4DBF-5349-84B2-32B15F657555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11020" yWindow="-19320" windowWidth="27240" windowHeight="15360" xr2:uid="{22A6F945-93EC-4C4C-8699-B7991E014781}"/>
+    <workbookView xWindow="9600" yWindow="-23940" windowWidth="25760" windowHeight="18460" xr2:uid="{22A6F945-93EC-4C4C-8699-B7991E014781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +320,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,11 +348,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A4F54A-1648-B847-A1B7-47797666AE78}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,8 +747,8 @@
       <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
-        <v>0</v>
+      <c r="H2" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -766,7 +774,7 @@
         <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -792,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -818,7 +826,7 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -844,7 +852,7 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -864,7 +872,7 @@
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -884,7 +892,7 @@
         <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -904,7 +912,7 @@
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -921,7 +929,7 @@
         <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -938,7 +946,7 @@
         <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -955,7 +963,7 @@
         <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -972,7 +980,7 @@
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -994,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -1010,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -1018,7 +1026,7 @@
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -1026,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -1034,7 +1042,7 @@
         <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -1042,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -1050,7 +1058,7 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -1058,7 +1066,7 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -1066,7 +1074,7 @@
         <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -1074,27 +1082,27 @@
         <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H29" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
